--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick\programming\python\ExcelJSON\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D3EB70D-1AE9-41AA-908C-B3FC45A18422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93DCDF6-38D8-4B17-A31B-FAF80389A39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39810" yWindow="7785" windowWidth="21495" windowHeight="9975" xr2:uid="{2496691F-B18E-4B7A-9820-CFE5CE9632AB}"/>
+    <workbookView xWindow="39810" yWindow="7785" windowWidth="21495" windowHeight="9975" activeTab="1" xr2:uid="{2496691F-B18E-4B7A-9820-CFE5CE9632AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Something Else" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>col1</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>something</t>
+  </si>
+  <si>
+    <t>blah</t>
   </si>
 </sst>
 </file>
@@ -406,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF046C5-1A6C-4CB1-8259-C742245A7CB8}">
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -454,4 +458,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3CB31A-35BD-48AC-A42C-14845377F4B8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>